--- a/AfDD_2025_Annex_Table_Tab16.xlsx
+++ b/AfDD_2025_Annex_Table_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5C34061-25B1-4469-A81F-78066AB6349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ADD7B3-641B-4EAF-B1FB-7D6D6F17CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{061F9B95-D340-4451-AF4F-26F197DC4BF6}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E31CD75E-CB40-4306-A916-AB2A6303F4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on OECD Environment Statistics (database, updated December 2020) and population data from World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -1493,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B36A159-DD7D-4E45-A527-EBC35784825C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62596C9C-5F9D-4886-B1FF-AE85590A7652}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1501,15 +1501,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.140625" style="80" customWidth="1"/>
-    <col min="16" max="27" width="11.42578125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="80" customWidth="1"/>
+    <col min="16" max="27" width="11.453125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1539,7 +1539,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>8.6852809999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>18.802240999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>23.084558999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>27.407083</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>9.0632819999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>9.8066420000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>13.896587</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>24.979748000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>8.7048880000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>12.048500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>48</v>
@@ -2470,10 +2470,10 @@
         <v>242.65267399999999</v>
       </c>
       <c r="G13" s="29">
-        <v>3.7125949999999999</v>
+        <v>3.6880769999999998</v>
       </c>
       <c r="H13" s="30">
-        <v>5.982685</v>
+        <v>5.9316180000000003</v>
       </c>
       <c r="I13" s="28">
         <v>73079</v>
@@ -2488,10 +2488,10 @@
         <v>154.44970900000001</v>
       </c>
       <c r="M13" s="29">
-        <v>2.470561</v>
+        <v>2.604393</v>
       </c>
       <c r="N13" s="30">
-        <v>4.7450479999999997</v>
+        <v>4.9021100000000004</v>
       </c>
       <c r="O13" s="28">
         <v>6.5607059999999997</v>
@@ -2533,7 +2533,7 @@
         <v>15.018312</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>8.4211679999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>21.565148000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>13.053516999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>11.657565999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>14.719789</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>8.5977840000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>10.302434</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>18.280835</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>18.639416000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>67</v>
@@ -3298,10 +3298,10 @@
         <v>55.173175000000001</v>
       </c>
       <c r="G23" s="29">
-        <v>3.1002529999999999</v>
+        <v>3.1000480000000001</v>
       </c>
       <c r="H23" s="30">
-        <v>6.7847759999999999</v>
+        <v>6.7829569999999997</v>
       </c>
       <c r="I23" s="28">
         <v>108015</v>
@@ -3316,10 +3316,10 @@
         <v>101.847812</v>
       </c>
       <c r="M23" s="29">
-        <v>5.8618899999999998</v>
+        <v>5.8668360000000002</v>
       </c>
       <c r="N23" s="30">
-        <v>13.163949000000001</v>
+        <v>13.164300000000001</v>
       </c>
       <c r="O23" s="28">
         <v>10.611063</v>
@@ -3361,7 +3361,7 @@
         <v>11.453934</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>15.170939000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>13.966557999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>72</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>20.578378000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>74</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>6.6859099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>8.7534310000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>9.1162890000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>80</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>33.171871000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>9.3494150000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>84</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>9.5811139999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>86</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>10.199420999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>8.2315039999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>91</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>8.6972430000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>93</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>9.3531969999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>95</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>7.2877000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>97</v>
@@ -4604,7 +4604,7 @@
         <v>8.3591130000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>98</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>13.792177000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>100</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>25.412174</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>102</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>13.396076000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>104</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>18.933138</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>106</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>18.482603999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>108</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>18.59027</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>110</v>
@@ -5183,7 +5183,7 @@
         <v>20.907876999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>111</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>14.889616999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>113</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>16.943781999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>29.461207000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>117</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>17.630714000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>17.139095000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>121</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>26.108509000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>123</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>18.248830000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>125</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>18.269883</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>127</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>14.442493000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>129</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>16.579616000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>11.474448000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>133</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>15.134933999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>135</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>19.06157</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>15.658344</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>16.377345999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>141</v>
@@ -6446,10 +6446,10 @@
         <v>159.94737900000001</v>
       </c>
       <c r="G61" s="29">
-        <v>3.7831440000000001</v>
+        <v>3.8492820000000001</v>
       </c>
       <c r="H61" s="30">
-        <v>7.6443430000000001</v>
+        <v>7.7195770000000001</v>
       </c>
       <c r="I61" s="28">
         <v>280512</v>
@@ -6464,10 +6464,10 @@
         <v>324.62125400000002</v>
       </c>
       <c r="M61" s="29">
-        <v>7.7929469999999998</v>
+        <v>7.7740309999999999</v>
       </c>
       <c r="N61" s="30">
-        <v>15.803118</v>
+        <v>15.644133</v>
       </c>
       <c r="O61" s="28">
         <v>7.788144</v>
@@ -6509,7 +6509,7 @@
         <v>16.450037999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>142</v>
@@ -6527,10 +6527,10 @@
         <v>260.60278499999998</v>
       </c>
       <c r="G62" s="51">
-        <v>5.1310250000000002</v>
+        <v>5.0606439999999999</v>
       </c>
       <c r="H62" s="52">
-        <v>11.808280999999999</v>
+        <v>11.552286</v>
       </c>
       <c r="I62" s="50">
         <v>696934</v>
@@ -6545,10 +6545,10 @@
         <v>176.840585</v>
       </c>
       <c r="M62" s="51">
-        <v>3.5783450000000001</v>
+        <v>3.8447619999999998</v>
       </c>
       <c r="N62" s="52">
-        <v>7.952223</v>
+        <v>8.3914790000000004</v>
       </c>
       <c r="O62" s="50">
         <v>8.5307589999999998</v>
@@ -6590,7 +6590,7 @@
         <v>14.014802</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>143</v>
@@ -6608,10 +6608,10 @@
         <v>932.92593899999997</v>
       </c>
       <c r="G63" s="51">
-        <v>5.0137499999999999</v>
+        <v>5.0128539999999999</v>
       </c>
       <c r="H63" s="52">
-        <v>10.053051</v>
+        <v>10.070586</v>
       </c>
       <c r="I63" s="50">
         <v>1614783</v>
@@ -6626,10 +6626,10 @@
         <v>255.93380500000001</v>
       </c>
       <c r="M63" s="51">
-        <v>1.3742239999999999</v>
+        <v>1.3720220000000001</v>
       </c>
       <c r="N63" s="52">
-        <v>2.707713</v>
+        <v>2.7035079999999998</v>
       </c>
       <c r="O63" s="50">
         <v>55.270133999999999</v>
@@ -6671,7 +6671,7 @@
         <v>44.561236000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>144</v>
@@ -6689,10 +6689,10 @@
         <v>412.119169</v>
       </c>
       <c r="G64" s="56">
-        <v>2.831995</v>
+        <v>2.8322080000000001</v>
       </c>
       <c r="H64" s="57">
-        <v>7.5328920000000004</v>
+        <v>7.5359119999999997</v>
       </c>
       <c r="I64" s="55">
         <v>59309</v>
@@ -6707,10 +6707,10 @@
         <v>110.220043</v>
       </c>
       <c r="M64" s="56">
-        <v>0.76938099999999998</v>
+        <v>0.76941300000000001</v>
       </c>
       <c r="N64" s="57">
-        <v>2.072114</v>
+        <v>2.0728469999999999</v>
       </c>
       <c r="O64" s="55">
         <v>12.446578000000001</v>
@@ -6752,7 +6752,7 @@
         <v>28.068555</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>145</v>
@@ -6770,10 +6770,10 @@
         <v>906.92091500000004</v>
       </c>
       <c r="G65" s="60">
-        <v>8.620241</v>
+        <v>8.6177609999999998</v>
       </c>
       <c r="H65" s="61">
-        <v>16.809149000000001</v>
+        <v>16.810333</v>
       </c>
       <c r="I65" s="59">
         <v>1518184</v>
@@ -6788,10 +6788,10 @@
         <v>355.88001500000001</v>
       </c>
       <c r="M65" s="60">
-        <v>3.411438</v>
+        <v>3.4092060000000002</v>
       </c>
       <c r="N65" s="61">
-        <v>6.7128360000000002</v>
+        <v>6.7084599999999996</v>
       </c>
       <c r="O65" s="59">
         <v>72.157398000000001</v>
@@ -6833,7 +6833,7 @@
         <v>18.734949</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>146</v>
@@ -6851,10 +6851,10 @@
         <v>817.38953400000003</v>
       </c>
       <c r="G66" s="64">
-        <v>5.019876</v>
+        <v>5.0155060000000002</v>
       </c>
       <c r="H66" s="65">
-        <v>10.144739</v>
+        <v>10.15279</v>
       </c>
       <c r="I66" s="63">
         <v>2311717</v>
@@ -6869,10 +6869,10 @@
         <v>242.34190899999999</v>
       </c>
       <c r="M66" s="64">
-        <v>1.4893609999999999</v>
+        <v>1.5092080000000001</v>
       </c>
       <c r="N66" s="65">
-        <v>2.9816690000000001</v>
+        <v>3.0190730000000001</v>
       </c>
       <c r="O66" s="63">
         <v>47.165914000000001</v>
@@ -6914,7 +6914,7 @@
         <v>39.264738000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>147</v>
@@ -6932,10 +6932,10 @@
         <v>298.29300699999999</v>
       </c>
       <c r="G67" s="60">
-        <v>6.3579299999999996</v>
+        <v>6.3223779999999996</v>
       </c>
       <c r="H67" s="61">
-        <v>16.007673</v>
+        <v>15.892503</v>
       </c>
       <c r="I67" s="59">
         <v>285276</v>
@@ -6950,10 +6950,10 @@
         <v>99.814738000000006</v>
       </c>
       <c r="M67" s="60">
-        <v>2.2588789999999999</v>
+        <v>2.323369</v>
       </c>
       <c r="N67" s="61">
-        <v>6.368709</v>
+        <v>6.4273429999999996</v>
       </c>
       <c r="O67" s="59">
         <v>8.8625349999999994</v>
@@ -6995,7 +6995,7 @@
         <v>11.749057000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>148</v>
@@ -7013,10 +7013,10 @@
         <v>396.98513500000001</v>
       </c>
       <c r="G68" s="60">
-        <v>6.537407</v>
+        <v>6.2897109999999996</v>
       </c>
       <c r="H68" s="61">
-        <v>15.319495999999999</v>
+        <v>14.574522</v>
       </c>
       <c r="I68" s="59">
         <v>350267</v>
@@ -7031,10 +7031,10 @@
         <v>224.893564</v>
       </c>
       <c r="M68" s="60">
-        <v>3.7952149999999998</v>
+        <v>4.1936600000000004</v>
       </c>
       <c r="N68" s="61">
-        <v>7.8044929999999999</v>
+        <v>8.5402509999999996</v>
       </c>
       <c r="O68" s="59">
         <v>9.9415479999999992</v>
@@ -7076,7 +7076,7 @@
         <v>17.241109999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>149</v>
@@ -7157,7 +7157,7 @@
         <v>8.5976359999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>150</v>
@@ -7175,10 +7175,10 @@
         <v>64.835246999999995</v>
       </c>
       <c r="G70" s="60">
-        <v>2.609416</v>
+        <v>2.6094020000000002</v>
       </c>
       <c r="H70" s="61">
-        <v>6.0599429999999996</v>
+        <v>6.0590979999999997</v>
       </c>
       <c r="I70" s="59">
         <v>124209</v>
@@ -7193,10 +7193,10 @@
         <v>118.608357</v>
       </c>
       <c r="M70" s="60">
-        <v>4.8019369999999997</v>
+        <v>4.8048330000000004</v>
       </c>
       <c r="N70" s="61">
-        <v>11.401736</v>
+        <v>11.402274999999999</v>
       </c>
       <c r="O70" s="59">
         <v>9.7056349999999991</v>
@@ -7238,7 +7238,7 @@
         <v>10.891716000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>151</v>
@@ -7256,10 +7256,10 @@
         <v>159.94737900000001</v>
       </c>
       <c r="G71" s="60">
-        <v>3.7831440000000001</v>
+        <v>3.8492820000000001</v>
       </c>
       <c r="H71" s="61">
-        <v>7.6443430000000001</v>
+        <v>7.7195770000000001</v>
       </c>
       <c r="I71" s="59">
         <v>280512</v>
@@ -7274,10 +7274,10 @@
         <v>324.62125400000002</v>
       </c>
       <c r="M71" s="60">
-        <v>7.7929469999999998</v>
+        <v>7.7740309999999999</v>
       </c>
       <c r="N71" s="61">
-        <v>15.803118</v>
+        <v>15.644133</v>
       </c>
       <c r="O71" s="59">
         <v>7.788144</v>
@@ -7319,7 +7319,7 @@
         <v>16.450037999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>152</v>
@@ -7400,7 +7400,7 @@
         <v>7.7589860000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>153</v>
@@ -7418,10 +7418,10 @@
         <v>135.87470200000001</v>
       </c>
       <c r="G73" s="60">
-        <v>3.2782779999999998</v>
+        <v>3.265533</v>
       </c>
       <c r="H73" s="61">
-        <v>5.5026900000000003</v>
+        <v>5.4695780000000003</v>
       </c>
       <c r="I73" s="59">
         <v>192307</v>
@@ -7436,10 +7436,10 @@
         <v>140.337898</v>
       </c>
       <c r="M73" s="60">
-        <v>3.4612349999999998</v>
+        <v>3.5521449999999999</v>
       </c>
       <c r="N73" s="61">
-        <v>7.5655330000000003</v>
+        <v>7.6465860000000001</v>
       </c>
       <c r="O73" s="59">
         <v>7.0464029999999998</v>
@@ -7481,7 +7481,7 @@
         <v>12.075657</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>154</v>
@@ -7562,7 +7562,7 @@
         <v>16.195281000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>155</v>
@@ -7580,10 +7580,10 @@
         <v>72.167640000000006</v>
       </c>
       <c r="G75" s="67">
-        <v>1.972229</v>
+        <v>1.9722109999999999</v>
       </c>
       <c r="H75" s="68">
-        <v>4.9169919999999996</v>
+        <v>4.9169499999999999</v>
       </c>
       <c r="I75" s="66">
         <v>35568</v>
@@ -7598,10 +7598,10 @@
         <v>155.53532799999999</v>
       </c>
       <c r="M75" s="67">
-        <v>3.9713470000000002</v>
+        <v>3.9713539999999998</v>
       </c>
       <c r="N75" s="68">
-        <v>9.4490210000000001</v>
+        <v>9.4490379999999998</v>
       </c>
       <c r="O75" s="66">
         <v>3.7828919999999999</v>
@@ -7643,7 +7643,7 @@
         <v>9.6886779999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>156</v>
@@ -7682,7 +7682,7 @@
         <v>2.9349889999999998</v>
       </c>
       <c r="N76" s="72">
-        <v>6.1687019999999997</v>
+        <v>6.1687029999999998</v>
       </c>
       <c r="O76" s="70">
         <v>13.634399999999999</v>
@@ -7724,7 +7724,7 @@
         <v>10.959179000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>157</v>
@@ -7742,10 +7742,10 @@
         <v>383.19729799999999</v>
       </c>
       <c r="G77" s="60">
-        <v>2.7012209999999999</v>
+        <v>2.7015150000000001</v>
       </c>
       <c r="H77" s="61">
-        <v>7.2928759999999997</v>
+        <v>7.2976869999999998</v>
       </c>
       <c r="I77" s="59">
         <v>24289</v>
@@ -7760,10 +7760,10 @@
         <v>83.952220999999994</v>
       </c>
       <c r="M77" s="60">
-        <v>0.58193700000000004</v>
+        <v>0.58216599999999996</v>
       </c>
       <c r="N77" s="61">
-        <v>1.6237839999999999</v>
+        <v>1.6254580000000001</v>
       </c>
       <c r="O77" s="59">
         <v>11.923358</v>
@@ -7805,7 +7805,7 @@
         <v>27.593574</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>158</v>
@@ -7823,10 +7823,10 @@
         <v>1458.3008420000001</v>
       </c>
       <c r="G78" s="60">
-        <v>3.49532</v>
+        <v>3.4954329999999998</v>
       </c>
       <c r="H78" s="61">
-        <v>5.3011309999999998</v>
+        <v>5.3012680000000003</v>
       </c>
       <c r="I78" s="59">
         <v>9423</v>
@@ -7841,10 +7841,10 @@
         <v>65.737378000000007</v>
       </c>
       <c r="M78" s="60">
-        <v>0.15687300000000001</v>
+        <v>0.156859</v>
       </c>
       <c r="N78" s="61">
-        <v>0.17408799999999999</v>
+        <v>0.174072</v>
       </c>
       <c r="O78" s="59">
         <v>31.742232000000001</v>
@@ -7886,7 +7886,7 @@
         <v>136.13735500000001</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>159</v>
@@ -7904,10 +7904,10 @@
         <v>1047.118115</v>
       </c>
       <c r="G79" s="64">
-        <v>2.4423490000000001</v>
+        <v>2.4443950000000001</v>
       </c>
       <c r="H79" s="65">
-        <v>4.9845519999999999</v>
+        <v>4.9907579999999996</v>
       </c>
       <c r="I79" s="63">
         <v>18287</v>
@@ -7922,10 +7922,10 @@
         <v>31.992716000000001</v>
       </c>
       <c r="M79" s="64">
-        <v>7.6166999999999999E-2</v>
+        <v>7.6133000000000006E-2</v>
       </c>
       <c r="N79" s="65">
-        <v>0.166711</v>
+        <v>0.16664599999999999</v>
       </c>
       <c r="O79" s="63">
         <v>28.234013999999998</v>
@@ -7967,7 +7967,7 @@
         <v>101.668004</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>160</v>
@@ -7985,10 +7985,10 @@
         <v>375.01345600000002</v>
       </c>
       <c r="G80" s="71">
-        <v>4.3591620000000004</v>
+        <v>4.3597000000000001</v>
       </c>
       <c r="H80" s="72">
-        <v>12.655671999999999</v>
+        <v>12.657641999999999</v>
       </c>
       <c r="I80" s="70">
         <v>38642</v>
@@ -8003,10 +8003,10 @@
         <v>98.723326999999998</v>
       </c>
       <c r="M80" s="71">
-        <v>1.415459</v>
+        <v>1.413343</v>
       </c>
       <c r="N80" s="72">
-        <v>3.24851</v>
+        <v>3.2451479999999999</v>
       </c>
       <c r="O80" s="70">
         <v>9.0764999999999993</v>
@@ -8048,7 +8048,7 @@
         <v>12.013049000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>161</v>
@@ -8066,10 +8066,10 @@
         <v>991.26752599999998</v>
       </c>
       <c r="G81" s="60">
-        <v>5.07843</v>
+        <v>5.067717</v>
       </c>
       <c r="H81" s="61">
-        <v>13.81481</v>
+        <v>13.947978000000001</v>
       </c>
       <c r="I81" s="59">
         <v>31441</v>
@@ -8084,10 +8084,10 @@
         <v>52.682581999999996</v>
       </c>
       <c r="M81" s="60">
-        <v>0.25065399999999999</v>
+        <v>0.24724699999999999</v>
       </c>
       <c r="N81" s="61">
-        <v>0.44060500000000002</v>
+        <v>0.43498500000000001</v>
       </c>
       <c r="O81" s="59">
         <v>11.082656999999999</v>
@@ -8129,7 +8129,7 @@
         <v>90.123690999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>162</v>
@@ -8147,10 +8147,10 @@
         <v>249.80304899999999</v>
       </c>
       <c r="G82" s="60">
-        <v>5.2786179999999998</v>
+        <v>5.1846740000000002</v>
       </c>
       <c r="H82" s="61">
-        <v>11.646246</v>
+        <v>11.356698</v>
       </c>
       <c r="I82" s="59">
         <v>658292</v>
@@ -8165,10 +8165,10 @@
         <v>184.21442300000001</v>
       </c>
       <c r="M82" s="60">
-        <v>3.991924</v>
+        <v>4.2749940000000004</v>
       </c>
       <c r="N82" s="61">
-        <v>8.8516499999999994</v>
+        <v>9.3021049999999992</v>
       </c>
       <c r="O82" s="59">
         <v>8.4752650000000003</v>
@@ -8210,7 +8210,7 @@
         <v>14.218351999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>163</v>
@@ -8228,10 +8228,10 @@
         <v>928.00147100000004</v>
       </c>
       <c r="G83" s="64">
-        <v>5.0076679999999998</v>
+        <v>5.0076239999999999</v>
       </c>
       <c r="H83" s="65">
-        <v>9.6993519999999993</v>
+        <v>9.7009749999999997</v>
       </c>
       <c r="I83" s="63">
         <v>1583342</v>
@@ -8246,10 +8246,10 @@
         <v>273.08973099999997</v>
       </c>
       <c r="M83" s="64">
-        <v>1.479868</v>
+        <v>1.479241</v>
       </c>
       <c r="N83" s="65">
-        <v>2.9208780000000001</v>
+        <v>2.9197540000000002</v>
       </c>
       <c r="O83" s="63">
         <v>58.963574000000001</v>
@@ -8291,7 +8291,7 @@
         <v>40.752867999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>164</v>
@@ -8309,10 +8309,10 @@
         <v>38.112029</v>
       </c>
       <c r="G84" s="71">
-        <v>1.9103019999999999</v>
+        <v>1.910407</v>
       </c>
       <c r="H84" s="72">
-        <v>5.5864669999999998</v>
+        <v>5.5858299999999996</v>
       </c>
       <c r="I84" s="70">
         <v>325979</v>
@@ -8327,10 +8327,10 @@
         <v>121.545129</v>
       </c>
       <c r="M84" s="71">
-        <v>6.9521740000000003</v>
+        <v>6.9542669999999998</v>
       </c>
       <c r="N84" s="72">
-        <v>17.519552000000001</v>
+        <v>17.518986000000002</v>
       </c>
       <c r="O84" s="70">
         <v>7.5824170000000004</v>
@@ -8372,7 +8372,7 @@
         <v>10.355364</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>165</v>
@@ -8453,7 +8453,7 @@
         <v>11.240929</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>166</v>
@@ -8471,10 +8471,10 @@
         <v>367.52571699999999</v>
       </c>
       <c r="G86" s="60">
-        <v>5.9954700000000001</v>
+        <v>5.8027290000000002</v>
       </c>
       <c r="H86" s="61">
-        <v>13.644541</v>
+        <v>13.070997</v>
       </c>
       <c r="I86" s="59">
         <v>297562</v>
@@ -8489,10 +8489,10 @@
         <v>236.32983100000001</v>
       </c>
       <c r="M86" s="60">
-        <v>3.9583949999999999</v>
+        <v>4.3318209999999997</v>
       </c>
       <c r="N86" s="61">
-        <v>8.1095129999999997</v>
+        <v>8.7714800000000004</v>
       </c>
       <c r="O86" s="59">
         <v>8.9833239999999996</v>
@@ -8534,7 +8534,7 @@
         <v>16.518087999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>167</v>
@@ -8615,7 +8615,7 @@
         <v>22.084177</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>168</v>
@@ -8633,10 +8633,10 @@
         <v>629.64094599999999</v>
       </c>
       <c r="G88" s="60">
-        <v>5.0078459999999998</v>
+        <v>5.0078449999999997</v>
       </c>
       <c r="H88" s="61">
-        <v>11.218273</v>
+        <v>11.218268999999999</v>
       </c>
       <c r="I88" s="59">
         <v>5566</v>
@@ -8651,10 +8651,10 @@
         <v>67.768180999999998</v>
       </c>
       <c r="M88" s="60">
-        <v>0.52309700000000003</v>
+        <v>0.52309499999999998</v>
       </c>
       <c r="N88" s="61">
-        <v>0.81241600000000003</v>
+        <v>0.81241300000000005</v>
       </c>
       <c r="O88" s="59">
         <v>11.678758</v>
@@ -8696,7 +8696,7 @@
         <v>19.838698000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>169</v>
@@ -8714,10 +8714,10 @@
         <v>1232.1106689999999</v>
       </c>
       <c r="G89" s="60">
-        <v>7.7971360000000001</v>
+        <v>7.7916840000000001</v>
       </c>
       <c r="H89" s="61">
-        <v>15.276386</v>
+        <v>15.276524999999999</v>
       </c>
       <c r="I89" s="59">
         <v>499284</v>
@@ -8732,10 +8732,10 @@
         <v>308.00615900000003</v>
       </c>
       <c r="M89" s="60">
-        <v>1.9432640000000001</v>
+        <v>1.939792</v>
       </c>
       <c r="N89" s="61">
-        <v>3.7745129999999998</v>
+        <v>3.7680899999999999</v>
       </c>
       <c r="O89" s="59">
         <v>42.311549999999997</v>
@@ -8777,7 +8777,7 @@
         <v>22.486281999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>170</v>
@@ -8795,10 +8795,10 @@
         <v>1185.327133</v>
       </c>
       <c r="G90" s="64">
-        <v>2.664263</v>
+        <v>2.66717</v>
       </c>
       <c r="H90" s="65">
-        <v>5.5369400000000004</v>
+        <v>5.5722719999999999</v>
       </c>
       <c r="I90" s="63">
         <v>12922</v>
@@ -8813,10 +8813,10 @@
         <v>28.996715999999999</v>
       </c>
       <c r="M90" s="64">
-        <v>6.7102999999999996E-2</v>
+        <v>6.6990999999999995E-2</v>
       </c>
       <c r="N90" s="65">
-        <v>8.3793999999999993E-2</v>
+        <v>8.3710999999999994E-2</v>
       </c>
       <c r="O90" s="63">
         <v>26.200906</v>
@@ -8858,7 +8858,7 @@
         <v>127.929936</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>171</v>
@@ -8876,10 +8876,10 @@
         <v>43.183576000000002</v>
       </c>
       <c r="G91" s="71">
-        <v>1.8188120000000001</v>
+        <v>1.819202</v>
       </c>
       <c r="H91" s="72">
-        <v>4.9323940000000004</v>
+        <v>4.9321520000000003</v>
       </c>
       <c r="I91" s="70">
         <v>486831</v>
@@ -8894,10 +8894,10 @@
         <v>147.78965299999999</v>
       </c>
       <c r="M91" s="71">
-        <v>6.5022130000000002</v>
+        <v>6.5052770000000004</v>
       </c>
       <c r="N91" s="72">
-        <v>16.649011999999999</v>
+        <v>16.651022000000001</v>
       </c>
       <c r="O91" s="70">
         <v>6.7976919999999996</v>
@@ -8939,7 +8939,7 @@
         <v>10.096221</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>172</v>
@@ -8978,7 +8978,7 @@
         <v>8.3148400000000002</v>
       </c>
       <c r="N92" s="61">
-        <v>17.987168</v>
+        <v>17.987169000000002</v>
       </c>
       <c r="O92" s="59">
         <v>53.405042000000002</v>
@@ -9020,7 +9020,7 @@
         <v>20.790890000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>173</v>
@@ -9038,10 +9038,10 @@
         <v>404.35226899999998</v>
       </c>
       <c r="G93" s="60">
-        <v>4.7179820000000001</v>
+        <v>4.7179250000000001</v>
       </c>
       <c r="H93" s="61">
-        <v>8.0908049999999996</v>
+        <v>8.0905889999999996</v>
       </c>
       <c r="I93" s="59">
         <v>2391</v>
@@ -9056,10 +9056,10 @@
         <v>131.235049</v>
       </c>
       <c r="M93" s="60">
-        <v>1.6488849999999999</v>
+        <v>1.6488719999999999</v>
       </c>
       <c r="N93" s="61">
-        <v>3.7967209999999998</v>
+        <v>3.7966880000000001</v>
       </c>
       <c r="O93" s="59">
         <v>4.4262360000000003</v>
@@ -9101,7 +9101,7 @@
         <v>22.678788000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>174</v>
@@ -9119,10 +9119,10 @@
         <v>501.92756100000003</v>
       </c>
       <c r="G94" s="60">
-        <v>2.6651289999999999</v>
+        <v>2.6661510000000002</v>
       </c>
       <c r="H94" s="61">
-        <v>10.027723999999999</v>
+        <v>10.022695000000001</v>
       </c>
       <c r="I94" s="59">
         <v>28112</v>
@@ -9137,10 +9137,10 @@
         <v>258.55076400000002</v>
       </c>
       <c r="M94" s="60">
-        <v>1.3243290000000001</v>
+        <v>1.3225880000000001</v>
       </c>
       <c r="N94" s="61">
-        <v>2.4093450000000001</v>
+        <v>2.4069240000000001</v>
       </c>
       <c r="O94" s="59">
         <v>5.6566850000000004</v>
@@ -9182,7 +9182,7 @@
         <v>22.550727999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>175</v>
@@ -9200,10 +9200,10 @@
         <v>32.073042999999998</v>
       </c>
       <c r="G95" s="60">
-        <v>1.481239</v>
+        <v>1.5134860000000001</v>
       </c>
       <c r="H95" s="61">
-        <v>3.3004600000000002</v>
+        <v>3.3022170000000002</v>
       </c>
       <c r="I95" s="59">
         <v>249366</v>
@@ -9218,10 +9218,10 @@
         <v>153.74528100000001</v>
       </c>
       <c r="M95" s="60">
-        <v>7.3830710000000002</v>
+        <v>7.4495909999999999</v>
       </c>
       <c r="N95" s="61">
-        <v>18.364014000000001</v>
+        <v>18.180109999999999</v>
       </c>
       <c r="O95" s="59">
         <v>6.5613520000000003</v>
@@ -9263,7 +9263,7 @@
         <v>9.6416210000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>176</v>
@@ -9281,10 +9281,10 @@
         <v>537.22227999999996</v>
       </c>
       <c r="G96" s="64">
-        <v>6.4812760000000003</v>
+        <v>6.4817330000000002</v>
       </c>
       <c r="H96" s="65">
-        <v>12.372536999999999</v>
+        <v>12.34811</v>
       </c>
       <c r="I96" s="63">
         <v>71126</v>
@@ -9299,10 +9299,10 @@
         <v>190.39679699999999</v>
       </c>
       <c r="M96" s="64">
-        <v>2.3589150000000001</v>
+        <v>2.3831570000000002</v>
       </c>
       <c r="N96" s="65">
-        <v>5.1537249999999997</v>
+        <v>5.2066929999999996</v>
       </c>
       <c r="O96" s="63">
         <v>44.134644000000002</v>
@@ -9344,7 +9344,7 @@
         <v>48.968933999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>177</v>
@@ -9362,10 +9362,10 @@
         <v>93.009482000000006</v>
       </c>
       <c r="G97" s="71">
-        <v>2.830756</v>
+        <v>2.9745710000000001</v>
       </c>
       <c r="H97" s="72">
-        <v>6.4934519999999996</v>
+        <v>6.6470349999999998</v>
       </c>
       <c r="I97" s="70">
         <v>657230</v>
@@ -9380,10 +9380,10 @@
         <v>207.1686</v>
       </c>
       <c r="M97" s="71">
-        <v>6.48644</v>
+        <v>6.6437109999999997</v>
       </c>
       <c r="N97" s="72">
-        <v>14.635258</v>
+        <v>14.665988</v>
       </c>
       <c r="O97" s="70">
         <v>6.9470650000000003</v>
@@ -9425,7 +9425,7 @@
         <v>11.430823</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>178</v>
@@ -9443,10 +9443,10 @@
         <v>337.58839799999998</v>
       </c>
       <c r="G98" s="64">
-        <v>5.5015790000000004</v>
+        <v>5.4976770000000004</v>
       </c>
       <c r="H98" s="65">
-        <v>13.709847999999999</v>
+        <v>13.739038000000001</v>
       </c>
       <c r="I98" s="63">
         <v>385338</v>
@@ -9461,10 +9461,10 @@
         <v>253.27286799999999</v>
       </c>
       <c r="M98" s="64">
-        <v>4.3301299999999996</v>
+        <v>4.3044279999999997</v>
       </c>
       <c r="N98" s="65">
-        <v>9.1703069999999993</v>
+        <v>9.1160019999999999</v>
       </c>
       <c r="O98" s="63">
         <v>37.988233000000001</v>
@@ -9506,7 +9506,7 @@
         <v>24.795449000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -9535,7 +9535,7 @@
       <c r="Z99" s="67"/>
       <c r="AA99" s="67"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>179</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="Z100" s="76"/>
       <c r="AA100" s="76"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="Z101" s="76"/>
       <c r="AA101" s="76"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>181</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="Z102" s="76"/>
       <c r="AA102" s="76"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>182</v>
       </c>
@@ -9655,7 +9655,7 @@
       <c r="Z103" s="76"/>
       <c r="AA103" s="76"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="Z104" s="76"/>
       <c r="AA104" s="76"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -9712,7 +9712,7 @@
       <c r="Z105" s="76"/>
       <c r="AA105" s="76"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -9740,7 +9740,7 @@
       <c r="Z106" s="76"/>
       <c r="AA106" s="76"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>184</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="Z107" s="76"/>
       <c r="AA107" s="76"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -9798,7 +9798,7 @@
       <c r="Z108" s="76"/>
       <c r="AA108" s="76"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>186</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="Z109" s="76"/>
       <c r="AA109" s="76"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>187</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="Z110" s="76"/>
       <c r="AA110" s="76"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>188</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="Z111" s="76"/>
       <c r="AA111" s="76"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>185</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="Z112" s="76"/>
       <c r="AA112" s="76"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -9948,12 +9948,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AB65CC1F-3C8D-4A65-B0D2-3761BC8FFABD}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{DA2A199F-4C75-4AA5-ACD1-286CCD43FBDB}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{0AA6ACF0-A766-418E-BF2A-03CD66640675}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{DE4FFFE9-A7D5-4551-8E66-C09121D15296}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{3A110632-7FEC-4ACB-B4F1-B2CA535C5F5D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{C3A39EB2-3ECC-4BD8-BBB6-C3F0957D35B0}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41365D90-4B6E-487E-8E79-3BCFDA496F98}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{4F06BEBE-0688-4D72-BCD9-1F3653D27049}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{9A4E2496-28A9-4599-B22F-4D430CD3A39B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6ED4E1F8-C2B9-44C3-B150-26332E8F7DF3}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8C932F92-A1A0-4989-A83A-475D5600E8CE}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9BE847E0-0102-413D-A6FC-F811B0E79323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab16.xlsx
+++ b/AfDD_2025_Annex_Table_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ADD7B3-641B-4EAF-B1FB-7D6D6F17CE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF061A2-D53C-487A-A449-F3BA9D758FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{E31CD75E-CB40-4306-A916-AB2A6303F4F9}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1E10FB48-5B8C-4D17-9092-3DF567E69F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on OECD Environment Statistics (database, updated December 2020) and population data from World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -594,16 +594,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,16 +745,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -981,7 +971,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1209,7 +1199,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1493,11 +1482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62596C9C-5F9D-4886-B1FF-AE85590A7652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AF54A4-D541-459F-B168-756F208D33BC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1505,8 +1494,8 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.1796875" style="80" customWidth="1"/>
-    <col min="16" max="27" width="11.453125" style="80" customWidth="1"/>
+    <col min="3" max="15" width="14.1796875" style="79" customWidth="1"/>
+    <col min="16" max="27" width="11.453125" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9740,10 +9729,8 @@
       <c r="Z106" s="76"/>
       <c r="AA106" s="76"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>184</v>
-      </c>
+    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -9771,7 +9758,9 @@
       <c r="AA107" s="76"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>184</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -9799,9 +9788,7 @@
       <c r="AA108" s="76"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>186</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -9829,8 +9816,8 @@
       <c r="AA109" s="76"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>187</v>
+      <c r="B110" s="80" t="s">
+        <v>185</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -9859,8 +9846,8 @@
       <c r="AA110" s="76"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>188</v>
+      <c r="B111" s="80" t="s">
+        <v>186</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -9889,8 +9876,8 @@
       <c r="AA111" s="76"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>185</v>
+      <c r="B112" s="80" t="s">
+        <v>188</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -9919,7 +9906,9 @@
       <c r="AA112" s="76"/>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>187</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -9946,17 +9935,44 @@
       <c r="Z113" s="76"/>
       <c r="AA113" s="76"/>
     </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
+      <c r="V114" s="76"/>
+      <c r="W114" s="76"/>
+      <c r="X114" s="76"/>
+      <c r="Y114" s="76"/>
+      <c r="Z114" s="76"/>
+      <c r="AA114" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41365D90-4B6E-487E-8E79-3BCFDA496F98}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{4F06BEBE-0688-4D72-BCD9-1F3653D27049}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{9A4E2496-28A9-4599-B22F-4D430CD3A39B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6ED4E1F8-C2B9-44C3-B150-26332E8F7DF3}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{8C932F92-A1A0-4989-A83A-475D5600E8CE}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9BE847E0-0102-413D-A6FC-F811B0E79323}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{BC6BD081-F911-4FDC-BDD7-5BA296160428}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{BB85144F-0E95-4B9F-B7BF-A788D0BBC09A}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{BC1D1850-0912-4518-87A7-3ACF7C8A408A}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{9A68AD4C-77F8-4F4C-9D19-FC4E95FF3211}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F9D7E5FC-D511-4B9A-90B5-79B24FB02C61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
